--- a/translation/xlsx/_tsum_017.xlsx
+++ b/translation/xlsx/_tsum_017.xlsx
@@ -5283,7 +5283,7 @@
     <t xml:space="preserve">주워들은 얼마 안 되는 소리와 입 모양의 움직임, 호흡을 필사적으로 떠올려 머리 속 비디오로 재생해본다. </t>
   </si>
   <si>
-    <t>「毎度〜〜、XXXXXXXXXXXXX〜〜〜。」</t>
+    <t>「毎度〜〜、＊＊＊＊＊＊＊＊＊＊＊＊＊〜〜〜。」</t>
   </si>
   <si>
     <t>\"Hello. XXXXXXXXXXXXX.\"</t>
@@ -5304,7 +5304,7 @@
     <t xml:space="preserve">\"아~, 정말 수고하셨습니다. </t>
   </si>
   <si>
-    <t>「いんえいんえ〜、XXは今日XXXXXXXXXXー、うぇっへっへー！」</t>
+    <t>「いんえいんえ〜、＊＊は今日＊＊＊＊＊＊＊＊＊＊ー、うぇっへっへー！」</t>
   </si>
   <si>
     <t>\"It sure is. XXXXX you XXXXXXXXXXXXX today XXXXXXXXX. Eh heh heh!\"</t>
@@ -5322,7 +5322,7 @@
     <t xml:space="preserve">\"아뇨 아뇨~, XXX은 오늘 XXXXXX~, 우헤헤~!\" </t>
   </si>
   <si>
-    <t>「XXXとXXXですね。</t>
+    <t>「＊＊＊と＊＊＊ですね。</t>
   </si>
   <si>
     <t>\"The XXXXXX and XXXXXXXX, I see.</t>
@@ -5343,7 +5343,7 @@
     <t xml:space="preserve">고맙습니다. </t>
   </si>
   <si>
-    <t>XXは空欄ですね、問題ありません。</t>
+    <t>＊＊は空欄ですね、問題ありません。</t>
   </si>
   <si>
     <t xml:space="preserve">XXXX은 공란에 나머진 이상 없네요. </t>
@@ -5355,7 +5355,7 @@
     <t>*는 빈칸이네요 문제없습니다.</t>
   </si>
   <si>
-    <t>「あぁい、それではXXXXりますんでぇ！」</t>
+    <t>「あぁい、それでは＊＊＊＊りますんでぇ！」</t>
   </si>
   <si>
     <t>\"All right. We'll XXXXX!\"</t>
@@ -8350,7 +8350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -8386,6 +8386,9 @@
       <name val="Calibri"/>
     </font>
     <font/>
+    <font>
+      <sz val="9.0"/>
+    </font>
     <font>
       <sz val="8.0"/>
     </font>
@@ -8480,7 +8483,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -8539,16 +8542,30 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -8567,8 +8584,7 @@
     <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -14928,7 +14944,7 @@
       <c r="C265" s="2" t="s">
         <v>1334</v>
       </c>
-      <c r="D265" s="7" t="s">
+      <c r="D265" s="25" t="s">
         <v>1335</v>
       </c>
       <c r="G265" s="4"/>
@@ -14939,7 +14955,7 @@
       <c r="J265" s="2" t="s">
         <v>1336</v>
       </c>
-      <c r="K265" s="25" t="s">
+      <c r="K265" s="26" t="s">
         <v>1335</v>
       </c>
     </row>
@@ -15011,7 +15027,7 @@
       <c r="J268" s="2" t="s">
         <v>1352</v>
       </c>
-      <c r="K268" s="26" t="s">
+      <c r="K268" s="27" t="s">
         <v>1353</v>
       </c>
     </row>
@@ -15061,7 +15077,7 @@
       <c r="J270" s="2" t="s">
         <v>1363</v>
       </c>
-      <c r="K270" s="26" t="s">
+      <c r="K270" s="27" t="s">
         <v>1364</v>
       </c>
     </row>
@@ -15083,7 +15099,7 @@
       <c r="J271" s="2" t="s">
         <v>1369</v>
       </c>
-      <c r="K271" s="26" t="s">
+      <c r="K271" s="27" t="s">
         <v>1370</v>
       </c>
     </row>
@@ -15199,7 +15215,7 @@
       <c r="J276" s="2" t="s">
         <v>1393</v>
       </c>
-      <c r="K276" s="25" t="s">
+      <c r="K276" s="26" t="s">
         <v>1391</v>
       </c>
     </row>
@@ -15497,7 +15513,7 @@
       <c r="J289" s="2" t="s">
         <v>1455</v>
       </c>
-      <c r="K289" s="26" t="s">
+      <c r="K289" s="27" t="s">
         <v>1456</v>
       </c>
     </row>
@@ -15591,7 +15607,7 @@
       <c r="J293" s="2" t="s">
         <v>1474</v>
       </c>
-      <c r="K293" s="26" t="s">
+      <c r="K293" s="27" t="s">
         <v>1475</v>
       </c>
     </row>
@@ -15613,7 +15629,7 @@
       <c r="J294" s="2" t="s">
         <v>1480</v>
       </c>
-      <c r="K294" s="26" t="s">
+      <c r="K294" s="27" t="s">
         <v>1481</v>
       </c>
     </row>
@@ -15640,7 +15656,7 @@
       </c>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="B296" s="2" t="s">
+      <c r="B296" s="10" t="s">
         <v>1488</v>
       </c>
       <c r="C296" s="2" t="s">
@@ -16805,24 +16821,24 @@
       <c r="A348" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="B348" s="2" t="s">
+      <c r="B348" s="10" t="s">
         <v>1755</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>1756</v>
       </c>
-      <c r="D348" s="19" t="s">
+      <c r="D348" s="28" t="s">
         <v>1757</v>
       </c>
       <c r="G348" s="4"/>
       <c r="H348" s="8"/>
-      <c r="I348" s="24" t="s">
+      <c r="I348" s="29" t="s">
         <v>1758</v>
       </c>
       <c r="J348" s="2" t="s">
         <v>1759</v>
       </c>
-      <c r="K348" s="25" t="s">
+      <c r="K348" s="26" t="s">
         <v>1760</v>
       </c>
     </row>
@@ -16877,24 +16893,24 @@
       <c r="A351" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="B351" s="2" t="s">
+      <c r="B351" s="9" t="s">
         <v>1762</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>1763</v>
       </c>
-      <c r="D351" s="27" t="s">
+      <c r="D351" s="30" t="s">
         <v>1764</v>
       </c>
       <c r="G351" s="4"/>
       <c r="H351" s="8"/>
-      <c r="I351" s="24" t="s">
+      <c r="I351" s="29" t="s">
         <v>1765</v>
       </c>
       <c r="J351" s="2" t="s">
         <v>1766</v>
       </c>
-      <c r="K351" s="26" t="s">
+      <c r="K351" s="27" t="s">
         <v>1767</v>
       </c>
     </row>
@@ -16944,7 +16960,7 @@
       <c r="J353" s="2" t="s">
         <v>1363</v>
       </c>
-      <c r="K353" s="26" t="s">
+      <c r="K353" s="27" t="s">
         <v>1364</v>
       </c>
     </row>
@@ -16966,7 +16982,7 @@
       <c r="J354" s="2" t="s">
         <v>1369</v>
       </c>
-      <c r="K354" s="26" t="s">
+      <c r="K354" s="27" t="s">
         <v>1370</v>
       </c>
     </row>
@@ -16974,24 +16990,24 @@
       <c r="A355" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="B355" s="2" t="s">
+      <c r="B355" s="9" t="s">
         <v>1768</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>1769</v>
       </c>
-      <c r="D355" s="7" t="s">
+      <c r="D355" s="25" t="s">
         <v>1770</v>
       </c>
       <c r="G355" s="4"/>
       <c r="H355" s="8"/>
-      <c r="I355" s="24" t="s">
+      <c r="I355" s="29" t="s">
         <v>1771</v>
       </c>
       <c r="J355" s="2" t="s">
         <v>1772</v>
       </c>
-      <c r="K355" s="9" t="s">
+      <c r="K355" s="26" t="s">
         <v>1770</v>
       </c>
     </row>
@@ -17018,24 +17034,24 @@
       </c>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="B357" s="2" t="s">
+      <c r="B357" s="9" t="s">
         <v>1775</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>1381</v>
       </c>
-      <c r="D357" s="14" t="s">
+      <c r="D357" s="31" t="s">
         <v>1776</v>
       </c>
       <c r="G357" s="4"/>
       <c r="H357" s="8"/>
-      <c r="I357" s="24" t="s">
+      <c r="I357" s="29" t="s">
         <v>1777</v>
       </c>
       <c r="J357" s="2" t="s">
         <v>1778</v>
       </c>
-      <c r="K357" s="15" t="s">
+      <c r="K357" s="32" t="s">
         <v>1776</v>
       </c>
     </row>
@@ -17065,7 +17081,7 @@
       <c r="A359" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="B359" s="2" t="s">
+      <c r="B359" s="9" t="s">
         <v>1779</v>
       </c>
       <c r="C359" s="2" t="s">
@@ -17076,13 +17092,13 @@
       </c>
       <c r="G359" s="4"/>
       <c r="H359" s="8"/>
-      <c r="I359" s="24" t="s">
+      <c r="I359" s="29" t="s">
         <v>1782</v>
       </c>
       <c r="J359" s="2" t="s">
         <v>1783</v>
       </c>
-      <c r="K359" s="25" t="s">
+      <c r="K359" s="26" t="s">
         <v>1784</v>
       </c>
     </row>
@@ -17302,7 +17318,7 @@
       <c r="J369" s="2" t="s">
         <v>1836</v>
       </c>
-      <c r="K369" s="28" t="s">
+      <c r="K369" s="33" t="s">
         <v>1835</v>
       </c>
     </row>
@@ -18102,24 +18118,24 @@
       <c r="A406" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="B406" s="2" t="s">
+      <c r="B406" s="9" t="s">
         <v>1762</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>1763</v>
       </c>
-      <c r="D406" s="29" t="s">
+      <c r="D406" s="34" t="s">
         <v>1764</v>
       </c>
       <c r="G406" s="4"/>
       <c r="H406" s="8"/>
-      <c r="I406" s="6" t="s">
+      <c r="I406" s="35" t="s">
         <v>1765</v>
       </c>
       <c r="J406" s="2" t="s">
         <v>1766</v>
       </c>
-      <c r="K406" s="26" t="s">
+      <c r="K406" s="27" t="s">
         <v>1767</v>
       </c>
     </row>
@@ -18228,14 +18244,14 @@
         <v>1361</v>
       </c>
       <c r="G411" s="4"/>
-      <c r="H411" s="30"/>
+      <c r="H411" s="36"/>
       <c r="I411" s="6" t="s">
         <v>1362</v>
       </c>
       <c r="J411" s="2" t="s">
         <v>1363</v>
       </c>
-      <c r="K411" s="26" t="s">
+      <c r="K411" s="27" t="s">
         <v>1364</v>
       </c>
     </row>
@@ -18257,7 +18273,7 @@
       <c r="J412" s="2" t="s">
         <v>1369</v>
       </c>
-      <c r="K412" s="26" t="s">
+      <c r="K412" s="27" t="s">
         <v>1370</v>
       </c>
     </row>
@@ -18265,24 +18281,24 @@
       <c r="A413" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="B413" s="2" t="s">
+      <c r="B413" s="9" t="s">
         <v>1768</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>1769</v>
       </c>
-      <c r="D413" s="7" t="s">
+      <c r="D413" s="25" t="s">
         <v>1770</v>
       </c>
       <c r="G413" s="4"/>
       <c r="H413" s="8"/>
-      <c r="I413" s="6" t="s">
+      <c r="I413" s="35" t="s">
         <v>1771</v>
       </c>
       <c r="J413" s="2" t="s">
         <v>1772</v>
       </c>
-      <c r="K413" s="9" t="s">
+      <c r="K413" s="26" t="s">
         <v>1770</v>
       </c>
     </row>
@@ -18309,24 +18325,24 @@
       </c>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="B415" s="2" t="s">
+      <c r="B415" s="9" t="s">
         <v>1775</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>1381</v>
       </c>
-      <c r="D415" s="14" t="s">
+      <c r="D415" s="31" t="s">
         <v>1776</v>
       </c>
       <c r="G415" s="4"/>
       <c r="H415" s="8"/>
-      <c r="I415" s="6" t="s">
+      <c r="I415" s="35" t="s">
         <v>1777</v>
       </c>
       <c r="J415" s="2" t="s">
         <v>1778</v>
       </c>
-      <c r="K415" s="15" t="s">
+      <c r="K415" s="32" t="s">
         <v>1776</v>
       </c>
     </row>
@@ -20034,11 +20050,11 @@
       </c>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="A493" s="31"/>
-      <c r="B493" s="32" t="s">
+      <c r="A493" s="37"/>
+      <c r="B493" s="38" t="s">
         <v>2431</v>
       </c>
-      <c r="C493" s="32" t="s">
+      <c r="C493" s="38" t="s">
         <v>2432</v>
       </c>
       <c r="D493" s="14" t="s">
@@ -20046,10 +20062,10 @@
       </c>
       <c r="G493" s="4"/>
       <c r="H493" s="8"/>
-      <c r="I493" s="33" t="s">
+      <c r="I493" s="39" t="s">
         <v>2434</v>
       </c>
-      <c r="J493" s="34" t="s">
+      <c r="J493" s="40" t="s">
         <v>2435</v>
       </c>
       <c r="K493" s="15" t="s">
@@ -20057,11 +20073,11 @@
       </c>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="A494" s="31"/>
-      <c r="B494" s="32" t="s">
+      <c r="A494" s="37"/>
+      <c r="B494" s="38" t="s">
         <v>2437</v>
       </c>
-      <c r="C494" s="32" t="s">
+      <c r="C494" s="38" t="s">
         <v>2438</v>
       </c>
       <c r="D494" s="14" t="s">
@@ -20069,10 +20085,10 @@
       </c>
       <c r="G494" s="4"/>
       <c r="H494" s="8"/>
-      <c r="I494" s="33" t="s">
+      <c r="I494" s="39" t="s">
         <v>2440</v>
       </c>
-      <c r="J494" s="34" t="s">
+      <c r="J494" s="40" t="s">
         <v>2441</v>
       </c>
       <c r="K494" s="15" t="s">
@@ -20463,7 +20479,7 @@
       <c r="C512" s="2" t="s">
         <v>2530</v>
       </c>
-      <c r="D512" s="35" t="s">
+      <c r="D512" s="41" t="s">
         <v>2531</v>
       </c>
       <c r="G512" s="4"/>
@@ -20474,7 +20490,7 @@
       <c r="J512" s="2" t="s">
         <v>2532</v>
       </c>
-      <c r="K512" s="36" t="s">
+      <c r="K512" s="42" t="s">
         <v>2531</v>
       </c>
     </row>
@@ -20832,7 +20848,7 @@
       <c r="K528" s="9" t="s">
         <v>2614</v>
       </c>
-      <c r="N528" s="37" t="s">
+      <c r="N528" s="43" t="s">
         <v>2615</v>
       </c>
     </row>
@@ -20854,10 +20870,10 @@
       <c r="J529" s="2" t="s">
         <v>2620</v>
       </c>
-      <c r="K529" s="28" t="s">
+      <c r="K529" s="33" t="s">
         <v>2619</v>
       </c>
-      <c r="N529" s="37" t="s">
+      <c r="N529" s="43" t="s">
         <v>2615</v>
       </c>
     </row>
@@ -21079,7 +21095,7 @@
         <v>1529</v>
       </c>
       <c r="G539" s="4"/>
-      <c r="H539" s="30"/>
+      <c r="H539" s="36"/>
       <c r="I539" s="6" t="s">
         <v>1529</v>
       </c>
@@ -21340,7 +21356,7 @@
       <c r="J550" s="2" t="s">
         <v>2716</v>
       </c>
-      <c r="K550" s="25" t="s">
+      <c r="K550" s="26" t="s">
         <v>2717</v>
       </c>
     </row>
@@ -21362,7 +21378,7 @@
       <c r="J551" s="2" t="s">
         <v>2722</v>
       </c>
-      <c r="K551" s="25" t="s">
+      <c r="K551" s="26" t="s">
         <v>2723</v>
       </c>
     </row>
@@ -21412,7 +21428,7 @@
       <c r="J553" s="2" t="s">
         <v>2733</v>
       </c>
-      <c r="K553" s="38" t="s">
+      <c r="K553" s="35" t="s">
         <v>2732</v>
       </c>
     </row>
@@ -21434,7 +21450,7 @@
       <c r="J554" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K554" s="25" t="s">
+      <c r="K554" s="26" t="s">
         <v>2736</v>
       </c>
     </row>
@@ -21456,7 +21472,7 @@
       <c r="J555" s="2" t="s">
         <v>2741</v>
       </c>
-      <c r="K555" s="26" t="s">
+      <c r="K555" s="27" t="s">
         <v>2742</v>
       </c>
     </row>
@@ -21478,7 +21494,7 @@
       <c r="J556" s="2" t="s">
         <v>2747</v>
       </c>
-      <c r="K556" s="25" t="s">
+      <c r="K556" s="26" t="s">
         <v>2745</v>
       </c>
     </row>
@@ -21500,7 +21516,7 @@
       <c r="J557" s="2" t="s">
         <v>2752</v>
       </c>
-      <c r="K557" s="25" t="s">
+      <c r="K557" s="26" t="s">
         <v>2750</v>
       </c>
     </row>
@@ -21525,7 +21541,7 @@
       <c r="J558" s="2" t="s">
         <v>2757</v>
       </c>
-      <c r="K558" s="26" t="s">
+      <c r="K558" s="27" t="s">
         <v>2758</v>
       </c>
     </row>
@@ -21547,7 +21563,7 @@
       <c r="J559" s="2" t="s">
         <v>2762</v>
       </c>
-      <c r="K559" s="25" t="s">
+      <c r="K559" s="26" t="s">
         <v>2763</v>
       </c>
     </row>
@@ -21569,7 +21585,7 @@
       <c r="J560" s="2" t="s">
         <v>2768</v>
       </c>
-      <c r="K560" s="39" t="s">
+      <c r="K560" s="44" t="s">
         <v>2769</v>
       </c>
     </row>
@@ -21591,7 +21607,7 @@
       <c r="J561" s="2" t="s">
         <v>2774</v>
       </c>
-      <c r="K561" s="25" t="s">
+      <c r="K561" s="26" t="s">
         <v>2775</v>
       </c>
     </row>
@@ -22630,7 +22646,7 @@
       <c r="C665" s="6"/>
       <c r="D665" s="11"/>
       <c r="G665" s="4"/>
-      <c r="H665" s="30"/>
+      <c r="H665" s="36"/>
       <c r="I665" s="6"/>
       <c r="J665" s="6"/>
       <c r="K665" s="6"/>

--- a/translation/xlsx/_tsum_017.xlsx
+++ b/translation/xlsx/_tsum_017.xlsx
@@ -5223,7 +5223,7 @@
     <t>...That's why they won't take action in the school, where people are watching...!</t>
   </si>
   <si>
-    <t xml:space="preserve">...그렇다면 다른 사람의 눈이 많은 이 학교에서는 손을 뻗치지는 못할 터...! </t>
+    <t xml:space="preserve">...그렇다면 다른 사람의 눈이 많은 이 학교에서 손을 뻗치지는 못할 터...! </t>
   </si>
   <si>
     <t xml:space="preserve">......그러니까, 다른 사람의 이목이 있는 이 학교에서는 손을 뻗치지는 못할 터...! </t>
@@ -16736,7 +16736,7 @@
       <c r="C344" s="2" t="s">
         <v>1734</v>
       </c>
-      <c r="D344" s="7" t="s">
+      <c r="D344" s="25" t="s">
         <v>1735</v>
       </c>
       <c r="G344" s="4"/>
@@ -17213,7 +17213,7 @@
       </c>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="B365" s="2" t="s">
+      <c r="B365" s="10" t="s">
         <v>1814</v>
       </c>
       <c r="C365" s="2" t="s">
